--- a/app/data/absenteeism_data_7.xlsx
+++ b/app/data/absenteeism_data_7.xlsx
@@ -476,248 +476,248 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>73404</v>
+        <v>79804</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Luiz Gustavo Cardoso</t>
+          <t>Dra. Maysa Teixeira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45089</v>
+        <v>45097</v>
       </c>
       <c r="G2" t="n">
-        <v>8435.139999999999</v>
+        <v>10299.69</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>75544</v>
+        <v>87854</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sr. Diogo Lopes</t>
+          <t>Natália Vieira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45101</v>
+        <v>45087</v>
       </c>
       <c r="G3" t="n">
-        <v>3439.59</v>
+        <v>6984.09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>64121</v>
+        <v>61727</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Heloísa Cardoso</t>
+          <t>Bruno Caldeira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45102</v>
+        <v>45084</v>
       </c>
       <c r="G4" t="n">
-        <v>9661.27</v>
+        <v>5643.81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>34829</v>
+        <v>17789</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Luiza Mendes</t>
+          <t>Esther Cardoso</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45099</v>
+        <v>45094</v>
       </c>
       <c r="G5" t="n">
-        <v>7059.49</v>
+        <v>10306.19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>70974</v>
+        <v>42565</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Benjamin Nogueira</t>
+          <t>Luna Viana</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45090</v>
+        <v>45084</v>
       </c>
       <c r="G6" t="n">
-        <v>10023.03</v>
+        <v>5307.96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>77318</v>
+        <v>16531</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Enzo das Neves</t>
+          <t>Emanuel Barros</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45096</v>
+        <v>45097</v>
       </c>
       <c r="G7" t="n">
-        <v>7950.53</v>
+        <v>8823.129999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>85171</v>
+        <v>95987</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Vitória da Rocha</t>
+          <t>João Vitor Nogueira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45094</v>
+        <v>45097</v>
       </c>
       <c r="G8" t="n">
-        <v>7224.21</v>
+        <v>10818.41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4477</v>
+        <v>70510</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sr. Guilherme Lima</t>
+          <t>Rodrigo Novaes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45094</v>
+        <v>45089</v>
       </c>
       <c r="G9" t="n">
-        <v>6126.78</v>
+        <v>11022.34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4137</v>
+        <v>68228</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Srta. Cecília Pereira</t>
+          <t>Júlia Aragão</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45084</v>
+        <v>45100</v>
       </c>
       <c r="G10" t="n">
-        <v>11848.16</v>
+        <v>9280.030000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>96447</v>
+        <v>59885</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sarah da Mota</t>
+          <t>Lorena Pires</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45078</v>
+        <v>45086</v>
       </c>
       <c r="G11" t="n">
-        <v>5290.27</v>
+        <v>7328.64</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_7.xlsx
+++ b/app/data/absenteeism_data_7.xlsx
@@ -476,190 +476,190 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>81210</v>
+        <v>17994</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ana Vitória Pereira</t>
+          <t>Pedro Henrique Cardoso</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45105</v>
+        <v>45090</v>
       </c>
       <c r="G2" t="n">
-        <v>7496.29</v>
+        <v>12202.61</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>67218</v>
+        <v>59018</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sophia Fernandes</t>
+          <t>Emanuella Gonçalves</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45081</v>
+        <v>45100</v>
       </c>
       <c r="G3" t="n">
-        <v>10372.65</v>
+        <v>7962.35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4072</v>
+        <v>81960</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Juliana Sales</t>
+          <t>Kaique da Mata</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45082</v>
+        <v>45097</v>
       </c>
       <c r="G4" t="n">
-        <v>4687.36</v>
+        <v>8959.719999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>33610</v>
+        <v>41567</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dra. Nina Porto</t>
+          <t>Cauã da Conceição</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45088</v>
+        <v>45091</v>
       </c>
       <c r="G5" t="n">
-        <v>4307.31</v>
+        <v>4617.35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>32070</v>
+        <v>14696</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>João Lucas Peixoto</t>
+          <t>Cauê Costa</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45103</v>
+        <v>45105</v>
       </c>
       <c r="G6" t="n">
-        <v>9342.08</v>
+        <v>7134.82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>36069</v>
+        <v>63891</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Marcela Azevedo</t>
+          <t>Letícia Ferreira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45102</v>
+        <v>45090</v>
       </c>
       <c r="G7" t="n">
-        <v>11754.97</v>
+        <v>6524.41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>51278</v>
+        <v>12046</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Thales da Luz</t>
+          <t>Lucas Gabriel Gonçalves</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,100 +668,100 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45105</v>
+        <v>45083</v>
       </c>
       <c r="G8" t="n">
-        <v>10090.76</v>
+        <v>11168.25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>44844</v>
+        <v>45978</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mirella Nogueira</t>
+          <t>Esther Moreira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45086</v>
+        <v>45093</v>
       </c>
       <c r="G9" t="n">
-        <v>8181.06</v>
+        <v>7350.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>85178</v>
+        <v>34366</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Vitor Gabriel Lima</t>
+          <t>Bárbara Correia</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45089</v>
+        <v>45095</v>
       </c>
       <c r="G10" t="n">
-        <v>4778.95</v>
+        <v>5481.27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>34732</v>
+        <v>8089</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Enrico Aragão</t>
+          <t>Pedro Lucas Correia</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45088</v>
+        <v>45089</v>
       </c>
       <c r="G11" t="n">
-        <v>8782.299999999999</v>
+        <v>7890.93</v>
       </c>
     </row>
   </sheetData>
